--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1609477.125232922</v>
+        <v>1608154.561420987</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948782</v>
+        <v>5866991.033948783</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736053</v>
+        <v>1783678.472736052</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>299.3892267387119</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -752,7 +752,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588048</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>259.2298574737991</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,13 +1062,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>125.3270113550777</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>92.96465700163724</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>70.57989819358335</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>261.1872119898714</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>359.0841816924169</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1438,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>43.44362966055525</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>236.2900036124234</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1903,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2007,7 +2007,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>190.7894939684463</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>216.6467621941105</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -2250,16 +2250,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>51.50694716172411</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
         <v>279.9659758737533</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>118.8502774209935</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.7938350701827</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
         <v>78.88597920914971</v>
@@ -2617,7 +2617,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313585</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>19.70188050986948</v>
+        <v>62.53850039238218</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>190.1198520010252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.4697473695408</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.9355678040276</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>249.3009867789956</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>256.6554706538655</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>71.4204785647633</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.88432998251078</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>94.72891923539153</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H35" t="n">
-        <v>306.0455584304623</v>
+        <v>288.2570980008746</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.234755280439</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.88432998251077</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.5555146323697</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>179.41871194302</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>173.7190346830451</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>187.5348496534429</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>118.850277420994</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3802,13 +3802,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313585</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.2270503965661</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>145.0042940723129</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>38.94712866981744</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.41871194302</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>179.3230888550377</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>24.55582329958386</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>175.9287414815032</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>974.6830684215696</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>564.5584777348397</v>
       </c>
       <c r="D2" t="n">
         <v>160.0945478279002</v>
@@ -4336,16 +4336,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>1536.667839963387</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>1132.203910056448</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>717.8636945733447</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>700.8736865674363</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1444.571041487747</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>1206.227179347431</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>981.4914807361952</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.286950919918</v>
+        <v>1339.894384246108</v>
       </c>
       <c r="C8" t="n">
-        <v>648.1623602331882</v>
+        <v>1333.810197599782</v>
       </c>
       <c r="D8" t="n">
-        <v>243.6984303262487</v>
+        <v>929.346267692843</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>919.0464562501437</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4807,22 +4807,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L8" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M8" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N8" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L8" t="n">
-        <v>812.7934917636817</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1014.011766457887</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1530.854701124212</v>
-      </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>1346.075159870194</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.9926484891412</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C10" t="n">
-        <v>489.9926484891412</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>956.7620193743113</v>
+        <v>1307.338515594016</v>
       </c>
       <c r="W10" t="n">
-        <v>677.6923548831857</v>
+        <v>1028.26885110289</v>
       </c>
       <c r="X10" t="n">
-        <v>677.6923548831857</v>
+        <v>789.9249889625739</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.6923548831857</v>
+        <v>565.1892903513386</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5086,7 +5086,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>137.1261518932039</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="14">
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K15" t="n">
-        <v>741.8628115185547</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1144.417083962495</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>870.5313389020167</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>591.4616744108911</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>591.4616744108911</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>591.4616744108911</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>745.826042287315</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>1158.261447292595</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>933.5257486813593</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>861.8767203589325</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I23" t="n">
         <v>97.41996410676371</v>
@@ -6016,25 +6016,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>833.0698273472251</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.9146087838537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C25" t="n">
-        <v>256.9146087838537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D25" t="n">
         <v>97.41996410676371</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958426</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T25" t="n">
-        <v>1435.389185958426</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U25" t="n">
-        <v>1152.595270934433</v>
+        <v>995.1618575433336</v>
       </c>
       <c r="V25" t="n">
-        <v>878.7095258739548</v>
+        <v>721.2761124828555</v>
       </c>
       <c r="W25" t="n">
-        <v>878.7095258739548</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="X25" t="n">
-        <v>640.3656637336383</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.6143151778981</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F26" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
         <v>177.1027713887331</v>
@@ -6265,13 +6265,13 @@
         <v>3911.325541505085</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="M27" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>436.4543165702219</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
         <v>1161.994247859146</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.9645456204946</v>
+        <v>772.3635463857078</v>
       </c>
       <c r="C28" t="n">
-        <v>395.9645456204946</v>
+        <v>601.2701739474243</v>
       </c>
       <c r="D28" t="n">
-        <v>395.9645456204946</v>
+        <v>441.7755292703343</v>
       </c>
       <c r="E28" t="n">
-        <v>395.9645456204946</v>
+        <v>441.7755292703343</v>
       </c>
       <c r="F28" t="n">
-        <v>231.3334197310858</v>
+        <v>441.7755292703343</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3334197310858</v>
+        <v>274.6027327437249</v>
       </c>
       <c r="H28" t="n">
         <v>211.4325303271773</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958426</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.17198727593</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519368</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V28" t="n">
-        <v>913.3780722519368</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="W28" t="n">
-        <v>634.3084077608112</v>
+        <v>1423.142813531304</v>
       </c>
       <c r="X28" t="n">
-        <v>395.9645456204946</v>
+        <v>1184.798951390987</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.9645456204946</v>
+        <v>960.0632527797521</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F29" t="n">
         <v>894.7949994695443</v>
@@ -6490,25 +6490,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K30" t="n">
-        <v>436.4543165702219</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="L30" t="n">
-        <v>436.4543165702219</v>
+        <v>778.2043133443127</v>
       </c>
       <c r="M30" t="n">
-        <v>436.4543165702219</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>436.4543165702219</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
         <v>1161.994247859146</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2959992425126</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="C31" t="n">
-        <v>258.3307792384443</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384443</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H31" t="n">
         <v>97.41996410676373</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958426</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1435.389185958426</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1152.595270934433</v>
+        <v>1180.20136431594</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7095258739548</v>
+        <v>928.3821857512983</v>
       </c>
       <c r="W31" t="n">
-        <v>599.6398613828292</v>
+        <v>649.3125212601726</v>
       </c>
       <c r="X31" t="n">
-        <v>361.2959992425126</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.2959992425126</v>
+        <v>410.9686591198559</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092806</v>
+        <v>2537.213237850825</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406076</v>
+        <v>2127.088647164095</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499137</v>
+        <v>1722.624717257156</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1308.284501774052</v>
       </c>
       <c r="F32" t="n">
-        <v>665.8048419697211</v>
+        <v>887.2540897277399</v>
       </c>
       <c r="G32" t="n">
-        <v>406.5568918143014</v>
+        <v>478.6987893544664</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676371</v>
+        <v>169.5618616469287</v>
       </c>
       <c r="I32" t="n">
         <v>97.41996410676371</v>
@@ -6730,22 +6730,22 @@
         <v>4739.658996968401</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4482.612343926623</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>4132.774789263103</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3749.014488398272</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3348.371090567224</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757296</v>
+        <v>2947.434417515314</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>149.5207509155742</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L33" t="n">
-        <v>149.5207509155742</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.482341531885</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482341531885</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="O33" t="n">
-        <v>1741.022272820809</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="P33" t="n">
         <v>1741.022272820809</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6869640890978</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6869640890978</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6869640890978</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6869640890978</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676371</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I34" t="n">
         <v>97.41996410676371</v>
@@ -6885,25 +6885,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958426</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.17198727593</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519368</v>
+        <v>1098.417579024544</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914588</v>
+        <v>824.5318339640655</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003331</v>
+        <v>545.4621694729399</v>
       </c>
       <c r="X34" t="n">
-        <v>360.4226627003331</v>
+        <v>307.1183073326233</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.6869640890978</v>
+        <v>307.1183073326233</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092807</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F35" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395065</v>
       </c>
       <c r="G35" t="n">
-        <v>486.2396990962708</v>
+        <v>388.588749966233</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I35" t="n">
         <v>97.41996410676373</v>
@@ -6964,25 +6964,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757297</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K36" t="n">
-        <v>731.3135030713391</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L36" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N36" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1827.686693961768</v>
       </c>
       <c r="Q36" t="n">
         <v>2137.637783597812</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.1730091899655</v>
+        <v>135.6869640890978</v>
       </c>
       <c r="C37" t="n">
-        <v>217.1730091899655</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D37" t="n">
-        <v>217.1730091899655</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E37" t="n">
-        <v>217.1730091899655</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F37" t="n">
-        <v>217.1730091899655</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G37" t="n">
         <v>97.41996410676373</v>
@@ -7128,19 +7128,19 @@
         <v>1196.17198727593</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.17198727593</v>
+        <v>913.3780722519368</v>
       </c>
       <c r="V37" t="n">
-        <v>922.2862422154521</v>
+        <v>639.4923271914588</v>
       </c>
       <c r="W37" t="n">
-        <v>643.2165777243265</v>
+        <v>360.4226627003331</v>
       </c>
       <c r="X37" t="n">
-        <v>404.8727155840099</v>
+        <v>360.4226627003331</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.8727155840099</v>
+        <v>135.6869640890978</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D38" t="n">
         <v>1730.16562699896</v>
@@ -7253,22 +7253,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>118.2314079134381</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1015.482341531885</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>1741.022272820809</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
         <v>1741.022272820809</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.1807777487466</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C40" t="n">
-        <v>424.0874053104631</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G40" t="n">
         <v>97.41996410676371</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>1435.389185958427</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.960044894343</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V40" t="n">
-        <v>1245.960044894343</v>
+        <v>721.276112482856</v>
       </c>
       <c r="W40" t="n">
-        <v>1245.960044894343</v>
+        <v>442.2064479917303</v>
       </c>
       <c r="X40" t="n">
-        <v>1007.616182754026</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.8804841427909</v>
+        <v>97.41996410676371</v>
       </c>
     </row>
     <row r="41">
@@ -7432,7 +7432,7 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
         <v>4870.998205338185</v>
@@ -7450,10 +7450,10 @@
         <v>3911.325541505085</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
         <v>2954.975327257119</v>
@@ -7490,28 +7490,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443127</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M42" t="n">
-        <v>778.2043133443127</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.609758636149</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O42" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3425.700336099609</v>
+        <v>920.7227187698359</v>
       </c>
       <c r="C43" t="n">
-        <v>3425.700336099609</v>
+        <v>749.6293463315524</v>
       </c>
       <c r="D43" t="n">
-        <v>3266.205691422519</v>
+        <v>590.1347016544623</v>
       </c>
       <c r="E43" t="n">
-        <v>3266.205691422519</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="F43" t="n">
-        <v>3266.205691422519</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>4724.529221426758</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U43" t="n">
-        <v>4441.735306402765</v>
+        <v>1662.871944012513</v>
       </c>
       <c r="V43" t="n">
-        <v>4167.849561342287</v>
+        <v>1662.871944012513</v>
       </c>
       <c r="W43" t="n">
-        <v>3888.779896851161</v>
+        <v>1383.802279521388</v>
       </c>
       <c r="X43" t="n">
-        <v>3650.436034710845</v>
+        <v>1145.458417381071</v>
       </c>
       <c r="Y43" t="n">
-        <v>3425.700336099609</v>
+        <v>920.7227187698359</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C44" t="n">
         <v>2134.629556905899</v>
@@ -7669,7 +7669,7 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
         <v>4870.998205338185</v>
@@ -7727,25 +7727,25 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K45" t="n">
-        <v>590.8918437439528</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L45" t="n">
-        <v>1271.676192981502</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M45" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N45" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1827.686693961768</v>
       </c>
       <c r="Q45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3688.630471443706</v>
+        <v>454.0277484415534</v>
       </c>
       <c r="C46" t="n">
-        <v>3688.630471443706</v>
+        <v>454.0277484415534</v>
       </c>
       <c r="D46" t="n">
-        <v>3529.135826766616</v>
+        <v>454.0277484415534</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766616</v>
+        <v>454.0277484415534</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766616</v>
+        <v>289.3966225521447</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766616</v>
+        <v>122.2238260255353</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642933</v>
+        <v>122.2238260255353</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U46" t="n">
-        <v>4364.957714591686</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V46" t="n">
-        <v>4091.071969531207</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W46" t="n">
-        <v>3913.366170054941</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="X46" t="n">
-        <v>3913.366170054941</v>
+        <v>866.4631534468331</v>
       </c>
       <c r="Y46" t="n">
-        <v>3688.630471443706</v>
+        <v>641.7274548355978</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393445</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,13 +8455,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764446</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
@@ -8470,10 +8470,10 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730677</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>713.698690859688</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,13 +9497,13 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.2193952065452</v>
+        <v>432.9231496721354</v>
       </c>
       <c r="M24" t="n">
         <v>34.34760704978732</v>
       </c>
       <c r="N24" t="n">
-        <v>772.4429102964095</v>
+        <v>29.36224035654943</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461628</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>36.2193952065452</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978732</v>
+        <v>431.0513615153776</v>
       </c>
       <c r="N27" t="n">
-        <v>371.8211822388304</v>
+        <v>29.36224035654943</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461628</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -10193,19 +10193,19 @@
         <v>42.71231595856361</v>
       </c>
       <c r="K30" t="n">
-        <v>383.4886646764983</v>
+        <v>41.02972279421736</v>
       </c>
       <c r="L30" t="n">
-        <v>36.2193952065452</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978732</v>
+        <v>422.014207569821</v>
       </c>
       <c r="N30" t="n">
         <v>29.36224035654943</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461628</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>93.65678017685426</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.2193952065452</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978732</v>
       </c>
       <c r="N33" t="n">
         <v>29.36224035654943</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461628</v>
       </c>
       <c r="P33" t="n">
-        <v>36.7625314945888</v>
+        <v>330.6821200249405</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856361</v>
       </c>
       <c r="K36" t="n">
-        <v>477.9088417729246</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10679,13 +10679,13 @@
         <v>29.36224035654943</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461628</v>
       </c>
       <c r="P36" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861593</v>
+        <v>358.0781769018926</v>
       </c>
       <c r="R36" t="n">
         <v>53.31116889588061</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>55.36926746056953</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681332</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M42" t="n">
         <v>34.34760704978728</v>
       </c>
       <c r="N42" t="n">
-        <v>817.6505689341622</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461624</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681332</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0687818462716</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
         <v>29.36224035654939</v>
@@ -11393,10 +11393,10 @@
         <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>358.0781769018926</v>
       </c>
       <c r="R45" t="n">
         <v>53.31116889588059</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>45.55681957367921</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>71.73895577616186</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23670,7 +23670,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>43.68016236691372</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>46.36375766461865</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>219.6399404481492</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24195,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.88597920914971</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>117.1101460979199</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.6945065549402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>226.7002559248246</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>127.7265129225771</v>
+        <v>84.88989304006442</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>67.44687090987307</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>112.8724405582094</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>21.84590083087767</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>147.8142767156754</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>7.46550064438641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1004846480039</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>70.77214932595173</v>
       </c>
       <c r="H34" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.78846042958776</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.88597920914971</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>131.4981087313899</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>46.94555392897352</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
         <v>147.4283934324466</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>226.7002559248245</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>226.7002559248249</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>92.43112622031043</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>117.1101460979194</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>226.7002559248246</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.7002559248247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.4283934324466</v>
@@ -25839,13 +25839,13 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>91.82073262335828</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>241.0188472039359</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248245</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.31661725862554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.3502263647112</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682388.0557186225</v>
+        <v>682388.0557186228</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682388.0557186226</v>
+        <v>682388.0557186225</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682388.0557186226</v>
+        <v>682388.0557186225</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700414.1558058477</v>
+        <v>700414.1558058478</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700414.1558058478</v>
+        <v>700414.155805848</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700414.155805848</v>
+        <v>700414.1558058481</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700414.1558058477</v>
+        <v>700414.1558058478</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700414.1558058478</v>
+        <v>700414.155805848</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700414.1558058477</v>
+        <v>700414.155805848</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700414.1558058478</v>
+        <v>700414.155805848</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973709</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
         <v>488647.1790973708</v>
@@ -26322,19 +26322,19 @@
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="F2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="G2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="H2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="I2" t="n">
-        <v>448846.3252671338</v>
+        <v>448846.3252671337</v>
       </c>
       <c r="J2" t="n">
         <v>448846.3252671338</v>
@@ -26343,10 +26343,10 @@
         <v>448846.3252671339</v>
       </c>
       <c r="L2" t="n">
-        <v>448846.3252671337</v>
+        <v>448846.3252671339</v>
       </c>
       <c r="M2" t="n">
-        <v>448846.3252671337</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="N2" t="n">
         <v>448846.3252671341</v>
@@ -26355,7 +26355,7 @@
         <v>448846.3252671338</v>
       </c>
       <c r="P2" t="n">
-        <v>448846.3252671338</v>
+        <v>448846.3252671337</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>222716.4087914901</v>
       </c>
       <c r="C4" t="n">
-        <v>222716.40879149</v>
+        <v>222716.4087914901</v>
       </c>
       <c r="D4" t="n">
         <v>222716.4087914901</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25606.19533426919</v>
+        <v>25606.19533426905</v>
       </c>
       <c r="C6" t="n">
         <v>200561.7052273832</v>
@@ -26530,40 +26530,40 @@
         <v>200561.7052273832</v>
       </c>
       <c r="E6" t="n">
-        <v>67649.17957974428</v>
+        <v>67468.59898709506</v>
       </c>
       <c r="F6" t="n">
-        <v>259778.9424791873</v>
+        <v>259598.3618865382</v>
       </c>
       <c r="G6" t="n">
-        <v>259778.9424791874</v>
+        <v>259598.3618865382</v>
       </c>
       <c r="H6" t="n">
-        <v>259778.9424791874</v>
+        <v>259598.3618865383</v>
       </c>
       <c r="I6" t="n">
-        <v>225212.326982769</v>
+        <v>225079.6574700014</v>
       </c>
       <c r="J6" t="n">
-        <v>134566.1487927587</v>
+        <v>134433.4792799912</v>
       </c>
       <c r="K6" t="n">
-        <v>271160.9495986538</v>
+        <v>271028.2800858864</v>
       </c>
       <c r="L6" t="n">
-        <v>271160.9495986537</v>
+        <v>271028.2800858864</v>
       </c>
       <c r="M6" t="n">
-        <v>110802.4990979709</v>
+        <v>110669.8295852036</v>
       </c>
       <c r="N6" t="n">
-        <v>271160.9495986541</v>
+        <v>271028.2800858865</v>
       </c>
       <c r="O6" t="n">
-        <v>271160.9495986538</v>
+        <v>271028.2800858864</v>
       </c>
       <c r="P6" t="n">
-        <v>271160.9495986538</v>
+        <v>271028.2800858862</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>97.24773711402509</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.840962977198</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>231.7439112705374</v>
+        <v>145.411143792297</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>150.9519564911367</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>317.232156326635</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>346.240209732266</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.39332480391181</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>9.95967562000186</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>367.8628411009271</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
@@ -35190,10 +35190,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655902</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>743.0806699398601</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>396.7037544655902</v>
       </c>
       <c r="N27" t="n">
-        <v>342.458941882281</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>584.8767928905686</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>342.458941882281</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>387.6666005200337</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>584.8767928905686</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K33" t="n">
-        <v>52.62705738263689</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>293.9195885303517</v>
       </c>
       <c r="Q33" t="n">
         <v>365.0745974817615</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>203.4173850259144</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8791189787072</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L36" t="n">
         <v>687.6609588258071</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>21.02166041078226</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
         <v>365.0745974817615</v>
@@ -37800,10 +37800,10 @@
         <v>559.1282394618715</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906164</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258071</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>788.2883285776128</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P42" t="n">
         <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.1282394618715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906164</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>295.0390590520543</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
         <v>687.6609588258071</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
